--- a/addons/fleet_trip/static/src/template/COMMAND_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/COMMAND_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\quanlyvantai-main\vantai-gateway-main\addons\fleet_trip\static\src\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\python\vantai-gateway-main\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -456,9 +456,6 @@
     <t>lít.</t>
   </si>
   <si>
-    <t>Ngày …… tháng …… năm 2024</t>
-  </si>
-  <si>
     <t>LÁI XE</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Phòng Chính trị.</t>
+  </si>
+  <si>
+    <t>Ngày …… tháng …… năm ……….</t>
   </si>
 </sst>
 </file>
@@ -883,6 +883,60 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -901,86 +955,32 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1021,7 +1021,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E78AA3FA-73E5-402D-ABC4-64384F9EEF65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78AA3FA-73E5-402D-ABC4-64384F9EEF65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,7 +1075,7 @@
         <xdr:cNvPr id="3" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D155B25-EAB1-4AD4-B90F-EE77991B15A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D155B25-EAB1-4AD4-B90F-EE77991B15A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1134,7 @@
         <xdr:cNvPr id="10106" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749D7FC7-DFAD-C43D-9AF1-AB5E95A3655B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D7FC7-DFAD-C43D-9AF1-AB5E95A3655B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1188,7 @@
         <xdr:cNvPr id="10107" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2163BCC-6786-BB74-767D-C44461EBDE69}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2163BCC-6786-BB74-767D-C44461EBDE69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="18.75"/>
@@ -1521,76 +1521,76 @@
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="16.5">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
       <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="1:17" s="20" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
       <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:17" s="20" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="21">
         <v>3248</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="73" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="92"/>
       <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="13.5" customHeight="1">
@@ -1610,43 +1610,43 @@
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
       <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
       <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="18.95" customHeight="1">
@@ -1663,12 +1663,12 @@
       <c r="J8" s="58">
         <v>375</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
@@ -1682,18 +1682,18 @@
       <c r="C9" s="75"/>
       <c r="D9" s="75"/>
       <c r="E9" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="59"/>
@@ -1709,7 +1709,7 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
@@ -1733,7 +1733,7 @@
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
       <c r="H11" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
@@ -1755,7 +1755,7 @@
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
       <c r="H12" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
@@ -1775,7 +1775,7 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
@@ -1803,7 +1803,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="61"/>
       <c r="H14" s="61"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="16" spans="1:17" ht="18.95" customHeight="1">
       <c r="B16" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="67"/>
@@ -1851,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>54</v>
@@ -1918,15 +1918,15 @@
       <c r="G18" s="75" t="e">
         <v>#REF!</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="2:17" ht="18.95" customHeight="1">
@@ -1937,22 +1937,22 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="G19" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="84">
         <v>0</v>
       </c>
-      <c r="O19" s="81"/>
-      <c r="P19" s="82"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85"/>
       <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="2:17" s="33" customFormat="1" ht="18.95" hidden="1" customHeight="1">
@@ -2004,10 +2004,10 @@
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
-      <c r="G21" s="84">
+      <c r="G21" s="82">
         <v>50</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="17" t="s">
         <v>64</v>
       </c>
@@ -2016,37 +2016,37 @@
       <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="2:17" ht="18.95" customHeight="1">
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="83"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
       <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="2:17" ht="18.95" customHeight="1">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="24"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="83"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
       <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="2:17" ht="18.95" customHeight="1">
@@ -2196,24 +2196,24 @@
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" ht="23.1" customHeight="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="8.25" customHeight="1">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="75"/>
-      <c r="E37" s="87">
+      <c r="E37" s="80">
         <f>C4</f>
         <v>3248</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="79" t="s">
+      <c r="F37" s="80"/>
+      <c r="G37" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
       <c r="K37" s="25" t="s">
         <v>4</v>
       </c>
@@ -2257,11 +2257,11 @@
         <f>N4</f>
         <v>0</v>
       </c>
-      <c r="O37" s="79">
+      <c r="O37" s="81">
         <f>O4</f>
         <v>0</v>
       </c>
-      <c r="P37" s="79"/>
+      <c r="P37" s="81"/>
     </row>
     <row r="38" spans="1:17" ht="23.1" customHeight="1">
       <c r="B38" s="75" t="s">
@@ -2269,18 +2269,18 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="75"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="86"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="79"/>
     </row>
     <row r="39" spans="1:17" ht="23.1" customHeight="1">
       <c r="B39" s="75" t="s">
@@ -2290,16 +2290,16 @@
       <c r="D39" s="75"/>
       <c r="E39" s="75"/>
       <c r="F39" s="75"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="86"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="79"/>
     </row>
     <row r="40" spans="1:17" ht="23.1" customHeight="1">
       <c r="B40" s="75" t="s">
@@ -2309,8 +2309,8 @@
       <c r="D40" s="75"/>
       <c r="E40" s="75"/>
       <c r="F40" s="75"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="17" t="s">
         <v>75</v>
       </c>
@@ -2326,17 +2326,17 @@
         <v>76</v>
       </c>
       <c r="G41" s="75"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
       <c r="K41" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="86"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="79"/>
     </row>
     <row r="42" spans="1:17" ht="23.1" customHeight="1">
       <c r="B42" s="75" t="s">
@@ -2345,8 +2345,8 @@
       <c r="C42" s="75"/>
       <c r="D42" s="75"/>
       <c r="E42" s="75"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="17" t="s">
         <v>79</v>
       </c>
@@ -2390,16 +2390,16 @@
     </row>
     <row r="45" spans="1:17" s="40" customFormat="1" ht="23.1" customHeight="1">
       <c r="A45" s="43"/>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="42"/>
       <c r="K45" s="44"/>
       <c r="L45" s="45" t="s">
@@ -2415,16 +2415,16 @@
     </row>
     <row r="46" spans="1:17" s="40" customFormat="1" ht="23.1" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="42"/>
       <c r="K46" s="46"/>
       <c r="L46" s="45" t="s">
@@ -2440,16 +2440,16 @@
     </row>
     <row r="47" spans="1:17" s="40" customFormat="1" ht="23.1" customHeight="1">
       <c r="A47" s="43"/>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="42"/>
       <c r="K47" s="46"/>
       <c r="L47" s="45" t="s">
@@ -2468,38 +2468,38 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="I48" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
     </row>
     <row r="49" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="33"/>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="83"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="70"/>
       <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" s="47" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2562,23 +2562,23 @@
     <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1"/>
     <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1"/>
     <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91"/>
-      <c r="P55" s="92"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="72"/>
     </row>
     <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="24"/>
@@ -2589,23 +2589,23 @@
       <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="83"/>
+      <c r="B57" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="70"/>
     </row>
     <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="23"/>
@@ -2645,23 +2645,23 @@
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1"/>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1"/>
     <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="83"/>
+      <c r="B63" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="70"/>
     </row>
     <row r="64" spans="1:17">
       <c r="Q64" s="28"/>
@@ -2698,24 +2698,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B63:P63"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="I55:P55"/>
-    <mergeCell ref="B57:P57"/>
-    <mergeCell ref="I48:P48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="I49:P49"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:P18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J22:P22"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="E38:P38"/>
     <mergeCell ref="B39:F39"/>
@@ -2725,33 +2734,24 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="O37:P37"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:P18"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B63:P63"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="I55:P55"/>
+    <mergeCell ref="B57:P57"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="I49:P49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -2787,61 +2787,61 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="97" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="99" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -2859,53 +2859,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -2946,21 +2946,21 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -2973,10 +2973,10 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3004,10 +3004,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3051,72 +3051,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -3134,23 +3134,23 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -3213,55 +3213,55 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -3328,17 +3328,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -3404,13 +3404,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="A25:D25"/>
@@ -3427,6 +3420,13 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>
